--- a/Payroll/test-improvement1.xlsx
+++ b/Payroll/test-improvement1.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://springfertility-my.sharepoint.com/personal/zorinan_kasilag_springfertility_com/Documents/Programs/Python/Payroll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED941B0E3C012D4C03259C926A45CED176" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9ADD17-C14B-4315-BE8A-4A174813F761}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_23F921ED941B0E3C012D4C03259C926A45CED176" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27558B5-7925-4743-AACD-49F6DB66867B}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$2329</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -795,25 +809,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2299" workbookViewId="0">
-      <selection activeCell="A2299" sqref="A2299"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -61397,6 +61413,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O2329" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>